--- a/calibration_log.xlsx
+++ b/calibration_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/EN_FSCV/Log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/EN_FSCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6805FD8-29A2-374F-83D9-6733F945A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01350D7-2519-644F-B71B-764BA05EE0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70EFF65A-D3A6-CC4B-ADFE-BB01482CA67A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,26 @@
   </si>
   <si>
     <t>E54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E62</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2674,6 +2695,286 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="G39" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="I39" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="J39" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="K39" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="L39" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="N39" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="O39" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="P39" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="R39" s="1">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="F40" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="G40" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="I40" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="J40" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="K40" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="L40" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="M40" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="N40" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="O40" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="P40" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="R40" s="1">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="4">
+        <v>44614</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="J42" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="L42" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="M42" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="N42" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="O42" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="P42" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="R42" s="1">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="4">
+        <v>44614</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="G43" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="H43" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="I43" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="J43" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="K43" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="L43" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="M43" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="N43" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="O43" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="P43" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="R43" s="1">
+        <v>7.83</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R32" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/calibration_log.xlsx
+++ b/calibration_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/EN_FSCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01350D7-2519-644F-B71B-764BA05EE0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC4F9E0-A41B-0C4D-A241-F36811F8C127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70EFF65A-D3A6-CC4B-ADFE-BB01482CA67A}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>

--- a/calibration_log.xlsx
+++ b/calibration_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/EN_FSCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC4F9E0-A41B-0C4D-A241-F36811F8C127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B806CDD7-CEBF-F545-A089-78348ADD8D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70EFF65A-D3A6-CC4B-ADFE-BB01482CA67A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Calibration!$A$1:$R$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Calibration!$A$1:$R$47</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,16 @@
   </si>
   <si>
     <t>E62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>E65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,11 +562,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}">
-  <dimension ref="A1:R43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2359,7 +2370,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" s="4">
         <v>44606</v>
       </c>
@@ -2415,7 +2426,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" s="4">
         <v>44606</v>
       </c>
@@ -2471,7 +2482,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" hidden="1">
       <c r="A35" s="4">
         <v>44606</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" s="4">
         <v>44607</v>
       </c>
@@ -2583,7 +2594,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" hidden="1">
       <c r="A37" s="4">
         <v>44607</v>
       </c>
@@ -2639,7 +2650,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" s="4">
         <v>44607</v>
       </c>
@@ -2695,7 +2706,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" hidden="1">
       <c r="A39" s="4">
         <v>44613</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" hidden="1">
       <c r="A40" s="4">
         <v>44613</v>
       </c>
@@ -2807,7 +2818,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41" s="4">
         <v>44613</v>
       </c>
@@ -2863,7 +2874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" hidden="1">
       <c r="A42" s="4">
         <v>44614</v>
       </c>
@@ -2919,7 +2930,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43" s="4">
         <v>44614</v>
       </c>
@@ -2975,8 +2986,238 @@
         <v>7.83</v>
       </c>
     </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="4">
+        <v>44617</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1">
+        <v>40</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45</v>
+      </c>
+      <c r="G44" s="1">
+        <v>50</v>
+      </c>
+      <c r="H44" s="1">
+        <v>55</v>
+      </c>
+      <c r="I44" s="1">
+        <v>60</v>
+      </c>
+      <c r="J44" s="1">
+        <v>85</v>
+      </c>
+      <c r="K44" s="1">
+        <v>90</v>
+      </c>
+      <c r="L44" s="1">
+        <v>95</v>
+      </c>
+      <c r="M44" s="1">
+        <v>105</v>
+      </c>
+      <c r="N44" s="1">
+        <v>115</v>
+      </c>
+      <c r="O44" s="1">
+        <v>120</v>
+      </c>
+      <c r="P44" s="1">
+        <v>135</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>140</v>
+      </c>
+      <c r="R44" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="4">
+        <v>44617</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1">
+        <v>50</v>
+      </c>
+      <c r="H45" s="1">
+        <v>55</v>
+      </c>
+      <c r="I45" s="1">
+        <v>60</v>
+      </c>
+      <c r="J45" s="1">
+        <v>85</v>
+      </c>
+      <c r="K45" s="1">
+        <v>90</v>
+      </c>
+      <c r="L45" s="1">
+        <v>95</v>
+      </c>
+      <c r="M45" s="1">
+        <v>105</v>
+      </c>
+      <c r="N45" s="1">
+        <v>115</v>
+      </c>
+      <c r="O45" s="1">
+        <v>120</v>
+      </c>
+      <c r="P45" s="1">
+        <v>135</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>140</v>
+      </c>
+      <c r="R45" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="4">
+        <v>44618</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1">
+        <v>40</v>
+      </c>
+      <c r="I46" s="1">
+        <v>45</v>
+      </c>
+      <c r="J46" s="1">
+        <v>50</v>
+      </c>
+      <c r="K46" s="1">
+        <v>60</v>
+      </c>
+      <c r="L46" s="1">
+        <v>75</v>
+      </c>
+      <c r="M46" s="1">
+        <v>95</v>
+      </c>
+      <c r="N46" s="1">
+        <v>110</v>
+      </c>
+      <c r="O46" s="1">
+        <v>120</v>
+      </c>
+      <c r="P46" s="1">
+        <v>140</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>145</v>
+      </c>
+      <c r="R46" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="4">
+        <v>44618</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1">
+        <v>35</v>
+      </c>
+      <c r="H47" s="1">
+        <v>40</v>
+      </c>
+      <c r="I47" s="1">
+        <v>45</v>
+      </c>
+      <c r="J47" s="1">
+        <v>50</v>
+      </c>
+      <c r="K47" s="1">
+        <v>60</v>
+      </c>
+      <c r="L47" s="1">
+        <v>75</v>
+      </c>
+      <c r="M47" s="1">
+        <v>95</v>
+      </c>
+      <c r="N47" s="1">
+        <v>110</v>
+      </c>
+      <c r="O47" s="1">
+        <v>120</v>
+      </c>
+      <c r="P47" s="1">
+        <v>140</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>145</v>
+      </c>
+      <c r="R47" s="1">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R32" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}"/>
+  <autoFilter ref="A1:R47" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="DA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/calibration_log.xlsx
+++ b/calibration_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungyunlu/Library/CloudStorage/Box-Box/Hung-Yun Lu Research File/Projects/FSCV/EN_FSCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B806CDD7-CEBF-F545-A089-78348ADD8D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF8705-EE10-C044-ACCE-AB607ED2BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70EFF65A-D3A6-CC4B-ADFE-BB01482CA67A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Calibration!$A$1:$R$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Calibration!$A$1:$R$48</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,13 @@
     <t>E65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>E62</t>
+  </si>
+  <si>
+    <t>E68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,12 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2370,7 +2379,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1">
+    <row r="33" spans="1:18">
       <c r="A33" s="4">
         <v>44606</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18">
       <c r="A34" s="4">
         <v>44606</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="4">
         <v>44606</v>
       </c>
@@ -2538,7 +2547,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1">
+    <row r="36" spans="1:18">
       <c r="A36" s="4">
         <v>44607</v>
       </c>
@@ -2594,7 +2603,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1">
+    <row r="37" spans="1:18">
       <c r="A37" s="4">
         <v>44607</v>
       </c>
@@ -2650,7 +2659,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1">
+    <row r="38" spans="1:18">
       <c r="A38" s="4">
         <v>44607</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1">
+    <row r="39" spans="1:18">
       <c r="A39" s="4">
         <v>44613</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1">
+    <row r="40" spans="1:18">
       <c r="A40" s="4">
         <v>44613</v>
       </c>
@@ -2818,7 +2827,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1">
+    <row r="41" spans="1:18">
       <c r="A41" s="4">
         <v>44613</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1">
+    <row r="42" spans="1:18">
       <c r="A42" s="4">
         <v>44614</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1">
+    <row r="43" spans="1:18">
       <c r="A43" s="4">
         <v>44614</v>
       </c>
@@ -3210,14 +3219,292 @@
         <v>150</v>
       </c>
     </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1">
+        <v>50</v>
+      </c>
+      <c r="E48" s="1">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1">
+        <v>200</v>
+      </c>
+      <c r="G48" s="1">
+        <v>300</v>
+      </c>
+      <c r="H48" s="1">
+        <v>350</v>
+      </c>
+      <c r="I48" s="1">
+        <v>500</v>
+      </c>
+      <c r="J48" s="1">
+        <v>650</v>
+      </c>
+      <c r="K48" s="1">
+        <v>700</v>
+      </c>
+      <c r="L48" s="1">
+        <v>750</v>
+      </c>
+      <c r="M48" s="1">
+        <v>900</v>
+      </c>
+      <c r="N48" s="1">
+        <v>950</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1250</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1350</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1">
+        <v>100</v>
+      </c>
+      <c r="F49" s="1">
+        <v>200</v>
+      </c>
+      <c r="G49" s="1">
+        <v>300</v>
+      </c>
+      <c r="H49" s="1">
+        <v>350</v>
+      </c>
+      <c r="I49" s="1">
+        <v>500</v>
+      </c>
+      <c r="J49" s="1">
+        <v>650</v>
+      </c>
+      <c r="K49" s="1">
+        <v>700</v>
+      </c>
+      <c r="L49" s="1">
+        <v>750</v>
+      </c>
+      <c r="M49" s="1">
+        <v>900</v>
+      </c>
+      <c r="N49" s="1">
+        <v>950</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1250</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>1350</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>250</v>
+      </c>
+      <c r="G51" s="1">
+        <v>300</v>
+      </c>
+      <c r="H51" s="1">
+        <v>400</v>
+      </c>
+      <c r="I51" s="1">
+        <v>900</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1150</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1200</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1250</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1300</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1350</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1450</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100</v>
+      </c>
+      <c r="E52" s="1">
+        <v>200</v>
+      </c>
+      <c r="F52" s="1">
+        <v>250</v>
+      </c>
+      <c r="G52" s="1">
+        <v>300</v>
+      </c>
+      <c r="H52" s="1">
+        <v>400</v>
+      </c>
+      <c r="I52" s="1">
+        <v>900</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1150</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1200</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1250</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1300</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1350</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1450</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="F54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R47" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="DA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R48" xr:uid="{B3910397-879A-B340-99A2-0ECA78893F04}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
